--- a/WAIC_VPH16.xlsx
+++ b/WAIC_VPH16.xlsx
@@ -20,7 +20,7 @@
     <t xml:space="preserve">normal</t>
   </si>
   <si>
-    <t xml:space="preserve">normal_log</t>
+    <t xml:space="preserve">normal_log_HPV18</t>
   </si>
 </sst>
 </file>
